--- a/UAS-PAKAR.xlsx
+++ b/UAS-PAKAR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wahjo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2033D651-DB08-4713-84E6-B19A63B28C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D2DB09-DC6A-493E-80BF-6F59AD5EDE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{F57A564A-4881-44D9-807E-6A6B8C32CAC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{F57A564A-4881-44D9-807E-6A6B8C32CAC9}"/>
   </bookViews>
   <sheets>
     <sheet name="tabel1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="159">
   <si>
     <t>id_penyakit</t>
   </si>
@@ -704,7 +704,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -722,113 +722,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1147,7 +1104,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A2" sqref="A2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1231,7 +1188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2FA3E31-1314-449A-9546-CD8FE57A854F}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -1466,8 +1423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5CE298B-2D70-444E-ADE0-D6CC7F7FDFA9}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1493,365 +1450,398 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="61" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="20" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="63"/>
-      <c r="B3" s="22" t="s">
+      <c r="A3" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="22" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="64"/>
-      <c r="B4" s="24" t="s">
+      <c r="A4" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="24" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="26" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="66"/>
-      <c r="B6" s="28" t="s">
+      <c r="A6" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="28" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="67"/>
-      <c r="B7" s="30" t="s">
+      <c r="A7" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="30" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="32" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="69"/>
-      <c r="B9" s="34" t="s">
+      <c r="A9" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="34" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="70"/>
-      <c r="B10" s="36" t="s">
+      <c r="A10" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="36" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="38" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="72"/>
-      <c r="B12" s="40" t="s">
+      <c r="A12" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="40" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="72"/>
-      <c r="B13" s="40" t="s">
+      <c r="A13" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="40" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="73"/>
-      <c r="B14" s="42" t="s">
+      <c r="A14" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="42" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="74" t="s">
+      <c r="A15" s="65" t="s">
         <v>156</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="44" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="75"/>
-      <c r="B16" s="46" t="s">
+      <c r="A16" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="46" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="75"/>
-      <c r="B17" s="46" t="s">
+      <c r="A17" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="46" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="76"/>
-      <c r="B18" s="48" t="s">
+      <c r="A18" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="48" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="77" t="s">
+      <c r="A19" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="D19" s="51" t="s">
+      <c r="D19" s="50" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="78"/>
-      <c r="B20" s="52" t="s">
+      <c r="A20" s="66" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="53" t="s">
+      <c r="D20" s="52" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="78"/>
-      <c r="B21" s="52" t="s">
+      <c r="A21" s="66" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="53" t="s">
+      <c r="D21" s="52" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="78"/>
-      <c r="B22" s="52" t="s">
+      <c r="A22" s="66" t="s">
+        <v>157</v>
+      </c>
+      <c r="B22" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="53" t="s">
+      <c r="D22" s="52" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="78"/>
-      <c r="B23" s="52" t="s">
+      <c r="A23" s="66" t="s">
+        <v>157</v>
+      </c>
+      <c r="B23" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="D23" s="53" t="s">
+      <c r="D23" s="52" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="78"/>
-      <c r="B24" s="52" t="s">
+      <c r="A24" s="66" t="s">
+        <v>157</v>
+      </c>
+      <c r="B24" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="52" t="s">
+      <c r="C24" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="53" t="s">
+      <c r="D24" s="52" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="79"/>
-      <c r="B25" s="54" t="s">
+      <c r="A25" s="66" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="55" t="s">
+      <c r="D25" s="54" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="80" t="s">
+      <c r="A26" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="B26" s="56" t="s">
+      <c r="B26" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="C26" s="56" t="s">
+      <c r="C26" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="D26" s="57" t="s">
+      <c r="D26" s="56" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="81"/>
-      <c r="B27" s="58" t="s">
+      <c r="A27" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="B27" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="58" t="s">
+      <c r="C27" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="59" t="s">
+      <c r="D27" s="58" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="81"/>
-      <c r="B28" s="58" t="s">
+      <c r="A28" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="58" t="s">
+      <c r="C28" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="59" t="s">
+      <c r="D28" s="58" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="82"/>
-      <c r="B29" s="60" t="s">
+      <c r="A29" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="B29" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="C29" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="61" t="s">
+      <c r="D29" s="60" t="s">
         <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A25"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1861,7 +1851,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1897,7 +1887,7 @@
       <c r="A3" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" t="s">
         <v>137</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -1908,7 +1898,7 @@
       <c r="A4" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" t="s">
         <v>139</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -1919,7 +1909,7 @@
       <c r="A5" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" t="s">
         <v>141</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -1930,7 +1920,7 @@
       <c r="A6" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" t="s">
         <v>143</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -1941,7 +1931,7 @@
       <c r="A7" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" t="s">
         <v>145</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -1952,7 +1942,7 @@
       <c r="A8" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" t="s">
         <v>147</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -1963,7 +1953,7 @@
       <c r="A9" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" t="s">
         <v>149</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -1971,10 +1961,10 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>151</v>
       </c>
       <c r="C10" s="12" t="s">
@@ -1991,7 +1981,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
